--- a/WebPage/Common/RptTemplet/0508Report.xlsx
+++ b/WebPage/Common/RptTemplet/0508Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\EOS_CardFlow\WebPage\Common\RptTemplet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CSIP_CardFlow\WebPage\Common\RptTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9211158-C55B-44CA-8D2F-4B9D4DE523A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB029E33-28E3-4EB3-8D49-DC96F362AD23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="-14640" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -121,11 +121,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -409,17 +410,18 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
